--- a/LuongThang7.xlsx
+++ b/LuongThang7.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>Mã NV</t>
   </si>
@@ -32,13 +32,22 @@
     <t>le hoang Sơn</t>
   </si>
   <si>
-    <t>Fri Jul 18 23:55:12 ICT 2025</t>
+    <t>Sat Jul 19 20:29:07 ICT 2025</t>
+  </si>
+  <si>
+    <t>lê thị khôi</t>
   </si>
   <si>
     <t>Khánh An</t>
   </si>
   <si>
-    <t>Đặng Trí Hào</t>
+    <t>lê thị hào</t>
+  </si>
+  <si>
+    <t>Phan Phạm Khánh An</t>
+  </si>
+  <si>
+    <t>Hoàng Thị An</t>
   </si>
 </sst>
 </file>
@@ -83,7 +92,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -117,7 +126,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>9107142.857142856</v>
+        <v>8035714.285714285</v>
       </c>
       <c r="E2" t="n" s="0">
         <v>0.0</v>
@@ -125,7 +134,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n" s="0">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>7</v>
@@ -134,7 +143,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>535714.2857142857</v>
+        <v>142857.14285714287</v>
       </c>
       <c r="E3" t="n" s="0">
         <v>0.0</v>
@@ -142,7 +151,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n" s="0">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>8</v>
@@ -154,6 +163,74 @@
         <v>178571.42857142858</v>
       </c>
       <c r="E4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E8" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>
